--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cd34-Sell.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cd34-Sell.xlsx
@@ -534,28 +534,28 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>120.2294996666667</v>
+        <v>53.64296733333333</v>
       </c>
       <c r="H2">
-        <v>360.688499</v>
+        <v>160.928902</v>
       </c>
       <c r="I2">
-        <v>0.2682304996487195</v>
+        <v>0.1405570576660657</v>
       </c>
       <c r="J2">
-        <v>0.2682304996487195</v>
+        <v>0.1405570576660657</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>85.13229200000001</v>
+        <v>0.002279333333333333</v>
       </c>
       <c r="N2">
-        <v>255.396876</v>
+        <v>0.006838</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>10235.41287263657</v>
+        <v>0.1222702035417778</v>
       </c>
       <c r="R2">
-        <v>92118.71585372913</v>
+        <v>1.100431831876</v>
       </c>
       <c r="S2">
-        <v>0.2682304996487195</v>
+        <v>0.1405570576660657</v>
       </c>
       <c r="T2">
-        <v>0.2682304996487195</v>
+        <v>0.1405570576660657</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,22 +602,22 @@
         <v>961.4394219999999</v>
       </c>
       <c r="I3">
-        <v>0.7149864142051174</v>
+        <v>0.83973167405618</v>
       </c>
       <c r="J3">
-        <v>0.7149864142051174</v>
+        <v>0.8397316740561799</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>85.13229200000001</v>
+        <v>0.002279333333333333</v>
       </c>
       <c r="N3">
-        <v>255.396876</v>
+        <v>0.006838</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>27283.18053800508</v>
+        <v>0.7304803075151111</v>
       </c>
       <c r="R3">
-        <v>245548.6248420457</v>
+        <v>6.574322767636</v>
       </c>
       <c r="S3">
-        <v>0.7149864142051174</v>
+        <v>0.83973167405618</v>
       </c>
       <c r="T3">
-        <v>0.7149864142051174</v>
+        <v>0.8397316740561799</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,28 +658,28 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.522716666666667</v>
+        <v>7.522716666666668</v>
       </c>
       <c r="H4">
         <v>22.56815</v>
       </c>
       <c r="I4">
-        <v>0.01678308614616306</v>
+        <v>0.01971126827775425</v>
       </c>
       <c r="J4">
-        <v>0.01678308614616306</v>
+        <v>0.01971126827775425</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>85.13229200000001</v>
+        <v>0.002279333333333333</v>
       </c>
       <c r="N4">
-        <v>255.396876</v>
+        <v>0.006838</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>640.4261118999334</v>
+        <v>0.01714677885555556</v>
       </c>
       <c r="R4">
-        <v>5763.8350070994</v>
+        <v>0.1543210097</v>
       </c>
       <c r="S4">
-        <v>0.01678308614616306</v>
+        <v>0.01971126827775425</v>
       </c>
       <c r="T4">
-        <v>0.01678308614616306</v>
+        <v>0.01971126827775425</v>
       </c>
     </row>
   </sheetData>
